--- a/olympic.xlsx
+++ b/olympic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="27480" windowHeight="16820" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="27480" windowHeight="16820" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="金牌榜" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="网络热词" sheetId="7" r:id="rId8"/>
     <sheet name="收看时间" sheetId="8" r:id="rId9"/>
     <sheet name="收看终端" sheetId="9" r:id="rId10"/>
+    <sheet name="奥运会关注度" sheetId="13" r:id="rId11"/>
+    <sheet name="乒乓球队员" sheetId="14" r:id="rId12"/>
+    <sheet name="赛程" sheetId="15" r:id="rId13"/>
+    <sheet name="转化率" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="838">
   <si>
     <t>顾雪宋</t>
   </si>
@@ -2227,13 +2231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐嘉余</t>
-    <rPh sb="0" eb="1">
-      <t>xu'jia'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选手</t>
     <rPh sb="0" eb="1">
       <t>xuan'shou</t>
@@ -2241,13 +2238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女子</t>
-    <rPh sb="0" eb="1">
-      <t>nv'zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国</t>
     <rPh sb="0" eb="1">
       <t>zhong'guo</t>
@@ -2269,13 +2259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仰泳</t>
-    <rPh sb="0" eb="1">
-      <t>yang'yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接力</t>
     <rPh sb="0" eb="1">
       <t>jie'li</t>
@@ -2297,13 +2280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表情</t>
-    <rPh sb="0" eb="1">
-      <t>biao'qing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成绩</t>
     <rPh sb="0" eb="1">
       <t>cheng'ji</t>
@@ -2311,13 +2287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京时间</t>
-    <rPh sb="0" eb="1">
-      <t>bei'jing'shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>健儿</t>
     <rPh sb="0" eb="1">
       <t>jian'er</t>
@@ -2346,13 +2315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自己</t>
-    <rPh sb="0" eb="1">
-      <t>zi'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可爱</t>
     <rPh sb="0" eb="1">
       <t>ke'ai</t>
@@ -2388,13 +2350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改变</t>
-    <rPh sb="0" eb="1">
-      <t>gai'bian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>媒体</t>
     <rPh sb="0" eb="1">
       <t>mei'ti</t>
@@ -2402,13 +2357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赞助</t>
-    <rPh sb="0" eb="1">
-      <t>zj'vu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>段子</t>
     <rPh sb="0" eb="1">
       <t>duan'zi</t>
@@ -2416,23 +2364,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祝贺</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'he</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机</t>
     <rPh sb="0" eb="1">
       <t>shou'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网友</t>
-    <rPh sb="0" eb="1">
-      <t>wang'you</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2990,6 +2924,130 @@
     <t>终端</t>
     <rPh sb="0" eb="1">
       <t>zhong'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆船</t>
+  </si>
+  <si>
+    <t>射箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橄榄球</t>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注度</t>
+    <rPh sb="0" eb="1">
+      <t>guan'zhu'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <rPh sb="0" eb="1">
+      <t>li'liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="1">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发球</t>
+    <rPh sb="0" eb="1">
+      <t>fa'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <rPh sb="0" eb="1">
+      <t>fang'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <rPh sb="0" eb="1">
+      <t>jing'yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马龙</t>
+    <rPh sb="0" eb="1">
+      <t>ma'long</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁宁</t>
+    <rPh sb="0" eb="1">
+      <t>ding'ning</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手球</t>
+  </si>
+  <si>
+    <t>帆船帆板</t>
+  </si>
+  <si>
+    <t>橄榄球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮数</t>
+    <rPh sb="0" eb="1">
+      <t>lun'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <rPh sb="0" eb="1">
+      <t>ren'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3065,7 +3123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3137,8 +3195,98 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3146,8 +3294,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="161">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -3184,6 +3333,51 @@
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3219,6 +3413,51 @@
     <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3532,10 +3771,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D2">
         <v>46</v>
@@ -3561,7 +3800,7 @@
         <v>523</v>
       </c>
       <c r="C3" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D3">
         <v>27</v>
@@ -3587,7 +3826,7 @@
         <v>524</v>
       </c>
       <c r="C4" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D4">
         <v>26</v>
@@ -3613,7 +3852,7 @@
         <v>525</v>
       </c>
       <c r="C5" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -3639,7 +3878,7 @@
         <v>526</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -3665,7 +3904,7 @@
         <v>527</v>
       </c>
       <c r="C7" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -3691,7 +3930,7 @@
         <v>528</v>
       </c>
       <c r="C8" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3717,7 +3956,7 @@
         <v>529</v>
       </c>
       <c r="C9" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -3743,7 +3982,7 @@
         <v>530</v>
       </c>
       <c r="C10" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -3769,7 +4008,7 @@
         <v>531</v>
       </c>
       <c r="C11" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -3795,7 +4034,7 @@
         <v>532</v>
       </c>
       <c r="C12" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -3821,7 +4060,7 @@
         <v>533</v>
       </c>
       <c r="C13" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -3847,7 +4086,7 @@
         <v>534</v>
       </c>
       <c r="C14" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -3873,7 +4112,7 @@
         <v>535</v>
       </c>
       <c r="C15" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -3899,7 +4138,7 @@
         <v>536</v>
       </c>
       <c r="C16" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -3925,7 +4164,7 @@
         <v>537</v>
       </c>
       <c r="C17" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3951,7 +4190,7 @@
         <v>538</v>
       </c>
       <c r="C18" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3977,7 +4216,7 @@
         <v>539</v>
       </c>
       <c r="C19" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -4003,7 +4242,7 @@
         <v>540</v>
       </c>
       <c r="C20" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -4029,7 +4268,7 @@
         <v>541</v>
       </c>
       <c r="C21" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -4055,7 +4294,7 @@
         <v>542</v>
       </c>
       <c r="C22" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -4081,7 +4320,7 @@
         <v>543</v>
       </c>
       <c r="C23" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -4107,7 +4346,7 @@
         <v>544</v>
       </c>
       <c r="C24" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -4133,7 +4372,7 @@
         <v>545</v>
       </c>
       <c r="C25" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -4159,7 +4398,7 @@
         <v>546</v>
       </c>
       <c r="C26" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4185,7 +4424,7 @@
         <v>547</v>
       </c>
       <c r="C27" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -4211,7 +4450,7 @@
         <v>548</v>
       </c>
       <c r="C28" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -4237,7 +4476,7 @@
         <v>549</v>
       </c>
       <c r="C29" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4263,7 +4502,7 @@
         <v>550</v>
       </c>
       <c r="C30" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4289,7 +4528,7 @@
         <v>551</v>
       </c>
       <c r="C31" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4315,7 +4554,7 @@
         <v>552</v>
       </c>
       <c r="C32" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4341,7 +4580,7 @@
         <v>553</v>
       </c>
       <c r="C33" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4367,7 +4606,7 @@
         <v>554</v>
       </c>
       <c r="C34" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4393,7 +4632,7 @@
         <v>555</v>
       </c>
       <c r="C35" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -4419,7 +4658,7 @@
         <v>557</v>
       </c>
       <c r="C36" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -4445,7 +4684,7 @@
         <v>556</v>
       </c>
       <c r="C37" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -4471,7 +4710,7 @@
         <v>558</v>
       </c>
       <c r="C38" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4497,7 +4736,7 @@
         <v>559</v>
       </c>
       <c r="C39" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -4523,7 +4762,7 @@
         <v>560</v>
       </c>
       <c r="C40" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4549,7 +4788,7 @@
         <v>561</v>
       </c>
       <c r="C41" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4575,7 +4814,7 @@
         <v>562</v>
       </c>
       <c r="C42" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4601,7 +4840,7 @@
         <v>563</v>
       </c>
       <c r="C43" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4627,7 +4866,7 @@
         <v>564</v>
       </c>
       <c r="C44" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4653,7 +4892,7 @@
         <v>565</v>
       </c>
       <c r="C45" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4679,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="C46" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4705,7 +4944,7 @@
         <v>567</v>
       </c>
       <c r="C47" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4731,7 +4970,7 @@
         <v>568</v>
       </c>
       <c r="C48" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -4757,7 +4996,7 @@
         <v>570</v>
       </c>
       <c r="C49" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -4783,7 +5022,7 @@
         <v>569</v>
       </c>
       <c r="C50" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4809,7 +5048,7 @@
         <v>571</v>
       </c>
       <c r="C51" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -4835,7 +5074,7 @@
         <v>573</v>
       </c>
       <c r="C52" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4861,7 +5100,7 @@
         <v>574</v>
       </c>
       <c r="C53" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4887,7 +5126,7 @@
         <v>572</v>
       </c>
       <c r="C54" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4913,7 +5152,7 @@
         <v>576</v>
       </c>
       <c r="C55" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4939,7 +5178,7 @@
         <v>577</v>
       </c>
       <c r="C56" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4965,7 +5204,7 @@
         <v>578</v>
       </c>
       <c r="C57" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4991,7 +5230,7 @@
         <v>579</v>
       </c>
       <c r="C58" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -5017,7 +5256,7 @@
         <v>575</v>
       </c>
       <c r="C59" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -5043,7 +5282,7 @@
         <v>580</v>
       </c>
       <c r="C60" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -5069,7 +5308,7 @@
         <v>581</v>
       </c>
       <c r="C61" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5095,7 +5334,7 @@
         <v>582</v>
       </c>
       <c r="C62" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5121,7 +5360,7 @@
         <v>583</v>
       </c>
       <c r="C63" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5147,7 +5386,7 @@
         <v>584</v>
       </c>
       <c r="C64" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -5173,7 +5412,7 @@
         <v>585</v>
       </c>
       <c r="C65" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -5199,7 +5438,7 @@
         <v>587</v>
       </c>
       <c r="C66" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5225,7 +5464,7 @@
         <v>586</v>
       </c>
       <c r="C67" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -5251,7 +5490,7 @@
         <v>589</v>
       </c>
       <c r="C68" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -5277,7 +5516,7 @@
         <v>588</v>
       </c>
       <c r="C69" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5303,7 +5542,7 @@
         <v>593</v>
       </c>
       <c r="C70" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5329,7 +5568,7 @@
         <v>591</v>
       </c>
       <c r="C71" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5355,7 +5594,7 @@
         <v>590</v>
       </c>
       <c r="C72" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5381,7 +5620,7 @@
         <v>592</v>
       </c>
       <c r="C73" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -5407,7 +5646,7 @@
         <v>594</v>
       </c>
       <c r="C74" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -5433,7 +5672,7 @@
         <v>595</v>
       </c>
       <c r="C75" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5459,7 +5698,7 @@
         <v>597</v>
       </c>
       <c r="C76" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -5485,7 +5724,7 @@
         <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -5511,7 +5750,7 @@
         <v>598</v>
       </c>
       <c r="C78" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -5537,7 +5776,7 @@
         <v>608</v>
       </c>
       <c r="C79" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -5563,7 +5802,7 @@
         <v>606</v>
       </c>
       <c r="C80" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5589,7 +5828,7 @@
         <v>602</v>
       </c>
       <c r="C81" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5615,7 +5854,7 @@
         <v>607</v>
       </c>
       <c r="C82" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5641,7 +5880,7 @@
         <v>601</v>
       </c>
       <c r="C83" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5667,7 +5906,7 @@
         <v>603</v>
       </c>
       <c r="C84" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5693,7 +5932,7 @@
         <v>604</v>
       </c>
       <c r="C85" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5719,7 +5958,7 @@
         <v>605</v>
       </c>
       <c r="C86" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5745,7 +5984,7 @@
         <v>599</v>
       </c>
       <c r="C87" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -5771,7 +6010,7 @@
         <v>600</v>
       </c>
       <c r="C88" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -5800,7 +6039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5808,15 +6047,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -5824,7 +6063,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B3">
         <v>27</v>
@@ -5832,7 +6071,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B4" s="3">
         <v>27</v>
@@ -5840,7 +6079,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -5849,6 +6088,754 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42005</v>
+      </c>
+      <c r="B2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42036</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42064</v>
+      </c>
+      <c r="B4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42095</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>42125</v>
+      </c>
+      <c r="B6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42156</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>42186</v>
+      </c>
+      <c r="B8">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>42217</v>
+      </c>
+      <c r="B9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>42248</v>
+      </c>
+      <c r="B10">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>42278</v>
+      </c>
+      <c r="B11">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>42309</v>
+      </c>
+      <c r="B12">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>42339</v>
+      </c>
+      <c r="B13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>42370</v>
+      </c>
+      <c r="B14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>42401</v>
+      </c>
+      <c r="B15">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>42430</v>
+      </c>
+      <c r="B16">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>42461</v>
+      </c>
+      <c r="B17">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>42491</v>
+      </c>
+      <c r="B18">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>42522</v>
+      </c>
+      <c r="B19">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>42552</v>
+      </c>
+      <c r="B20">
+        <v>31300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>42583</v>
+      </c>
+      <c r="B21">
+        <v>2018000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>42614</v>
+      </c>
+      <c r="B22">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>42644</v>
+      </c>
+      <c r="B23">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>42675</v>
+      </c>
+      <c r="B24">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>42705</v>
+      </c>
+      <c r="B25">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42587</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42594</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42593</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42590</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42590</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42586</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42593</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>833</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42600</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>835</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>834</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42591</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42589</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42596</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42599</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>459</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42600</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42589</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42596</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42604</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5857,20 +6844,20 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5878,7 +6865,7 @@
         <v>42588</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5889,7 +6876,7 @@
         <v>42588</v>
       </c>
       <c r="B3" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5900,7 +6887,7 @@
         <v>42588</v>
       </c>
       <c r="B4" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5911,7 +6898,7 @@
         <v>42588</v>
       </c>
       <c r="B5" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5922,7 +6909,7 @@
         <v>42588</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5933,7 +6920,7 @@
         <v>42589</v>
       </c>
       <c r="B7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -5944,7 +6931,7 @@
         <v>42589</v>
       </c>
       <c r="B8" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5955,7 +6942,7 @@
         <v>42589</v>
       </c>
       <c r="B9" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5966,7 +6953,7 @@
         <v>42589</v>
       </c>
       <c r="B10" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5977,7 +6964,7 @@
         <v>42589</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5988,7 +6975,7 @@
         <v>42590</v>
       </c>
       <c r="B12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5999,7 +6986,7 @@
         <v>42590</v>
       </c>
       <c r="B13" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6010,7 +6997,7 @@
         <v>42590</v>
       </c>
       <c r="B14" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6021,7 +7008,7 @@
         <v>42590</v>
       </c>
       <c r="B15" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6032,7 +7019,7 @@
         <v>42590</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6043,7 +7030,7 @@
         <v>42591</v>
       </c>
       <c r="B17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -6054,7 +7041,7 @@
         <v>42591</v>
       </c>
       <c r="B18" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -6065,7 +7052,7 @@
         <v>42591</v>
       </c>
       <c r="B19" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6076,7 +7063,7 @@
         <v>42591</v>
       </c>
       <c r="B20" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6087,7 +7074,7 @@
         <v>42591</v>
       </c>
       <c r="B21" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6098,7 +7085,7 @@
         <v>42592</v>
       </c>
       <c r="B22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -6109,7 +7096,7 @@
         <v>42592</v>
       </c>
       <c r="B23" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -6120,7 +7107,7 @@
         <v>42592</v>
       </c>
       <c r="B24" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6131,7 +7118,7 @@
         <v>42592</v>
       </c>
       <c r="B25" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -6142,7 +7129,7 @@
         <v>42592</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -6153,7 +7140,7 @@
         <v>42593</v>
       </c>
       <c r="B27" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -6164,7 +7151,7 @@
         <v>42593</v>
       </c>
       <c r="B28" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -6175,7 +7162,7 @@
         <v>42593</v>
       </c>
       <c r="B29" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6186,7 +7173,7 @@
         <v>42593</v>
       </c>
       <c r="B30" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6197,7 +7184,7 @@
         <v>42593</v>
       </c>
       <c r="B31" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6208,7 +7195,7 @@
         <v>42594</v>
       </c>
       <c r="B32" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -6219,7 +7206,7 @@
         <v>42594</v>
       </c>
       <c r="B33" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -6230,7 +7217,7 @@
         <v>42594</v>
       </c>
       <c r="B34" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -6241,7 +7228,7 @@
         <v>42594</v>
       </c>
       <c r="B35" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6252,7 +7239,7 @@
         <v>42594</v>
       </c>
       <c r="B36" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -6263,7 +7250,7 @@
         <v>42595</v>
       </c>
       <c r="B37" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -6274,7 +7261,7 @@
         <v>42595</v>
       </c>
       <c r="B38" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -6285,7 +7272,7 @@
         <v>42595</v>
       </c>
       <c r="B39" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -6296,7 +7283,7 @@
         <v>42595</v>
       </c>
       <c r="B40" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6307,7 +7294,7 @@
         <v>42595</v>
       </c>
       <c r="B41" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -6318,7 +7305,7 @@
         <v>42596</v>
       </c>
       <c r="B42" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -6329,7 +7316,7 @@
         <v>42596</v>
       </c>
       <c r="B43" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -6340,7 +7327,7 @@
         <v>42596</v>
       </c>
       <c r="B44" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -6351,7 +7338,7 @@
         <v>42596</v>
       </c>
       <c r="B45" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -6362,7 +7349,7 @@
         <v>42596</v>
       </c>
       <c r="B46" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6373,7 +7360,7 @@
         <v>42597</v>
       </c>
       <c r="B47" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6384,7 +7371,7 @@
         <v>42597</v>
       </c>
       <c r="B48" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6395,7 +7382,7 @@
         <v>42597</v>
       </c>
       <c r="B49" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -6406,7 +7393,7 @@
         <v>42597</v>
       </c>
       <c r="B50" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -6417,7 +7404,7 @@
         <v>42597</v>
       </c>
       <c r="B51" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6428,7 +7415,7 @@
         <v>42598</v>
       </c>
       <c r="B52" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -6439,7 +7426,7 @@
         <v>42598</v>
       </c>
       <c r="B53" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -6450,7 +7437,7 @@
         <v>42598</v>
       </c>
       <c r="B54" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6461,7 +7448,7 @@
         <v>42598</v>
       </c>
       <c r="B55" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -6472,7 +7459,7 @@
         <v>42598</v>
       </c>
       <c r="B56" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -6483,7 +7470,7 @@
         <v>42599</v>
       </c>
       <c r="B57" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6494,7 +7481,7 @@
         <v>42599</v>
       </c>
       <c r="B58" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6505,7 +7492,7 @@
         <v>42599</v>
       </c>
       <c r="B59" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6516,7 +7503,7 @@
         <v>42599</v>
       </c>
       <c r="B60" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6527,7 +7514,7 @@
         <v>42599</v>
       </c>
       <c r="B61" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6538,7 +7525,7 @@
         <v>42600</v>
       </c>
       <c r="B62" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6549,7 +7536,7 @@
         <v>42600</v>
       </c>
       <c r="B63" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -6560,7 +7547,7 @@
         <v>42600</v>
       </c>
       <c r="B64" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6571,7 +7558,7 @@
         <v>42600</v>
       </c>
       <c r="B65" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -6582,7 +7569,7 @@
         <v>42600</v>
       </c>
       <c r="B66" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6593,7 +7580,7 @@
         <v>42601</v>
       </c>
       <c r="B67" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6604,7 +7591,7 @@
         <v>42601</v>
       </c>
       <c r="B68" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6615,7 +7602,7 @@
         <v>42601</v>
       </c>
       <c r="B69" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6626,7 +7613,7 @@
         <v>42601</v>
       </c>
       <c r="B70" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6637,7 +7624,7 @@
         <v>42601</v>
       </c>
       <c r="B71" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6648,7 +7635,7 @@
         <v>42602</v>
       </c>
       <c r="B72" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -6659,7 +7646,7 @@
         <v>42602</v>
       </c>
       <c r="B73" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -6670,7 +7657,7 @@
         <v>42602</v>
       </c>
       <c r="B74" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6681,7 +7668,7 @@
         <v>42602</v>
       </c>
       <c r="B75" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -6692,7 +7679,7 @@
         <v>42602</v>
       </c>
       <c r="B76" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -6703,7 +7690,7 @@
         <v>42603</v>
       </c>
       <c r="B77" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -6714,7 +7701,7 @@
         <v>42603</v>
       </c>
       <c r="B78" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -6725,7 +7712,7 @@
         <v>42603</v>
       </c>
       <c r="B79" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -6736,7 +7723,7 @@
         <v>42603</v>
       </c>
       <c r="B80" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6747,7 +7734,7 @@
         <v>42603</v>
       </c>
       <c r="B81" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6838,7 +7825,7 @@
   <dimension ref="A1:H429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6851,22 +7838,22 @@
         <v>625</v>
       </c>
       <c r="B1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="E1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="G1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="H1" t="s">
         <v>637</v>
@@ -8406,7 +9393,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
@@ -8855,7 +9842,7 @@
         <v>70</v>
       </c>
       <c r="G91" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="H91" t="s">
         <v>102</v>
@@ -8904,7 +9891,7 @@
         <v>83</v>
       </c>
       <c r="G93" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="H93" t="s">
         <v>127</v>
@@ -9219,7 +10206,7 @@
         <v>100</v>
       </c>
       <c r="G108" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="H108" t="s">
         <v>127</v>
@@ -9294,7 +10281,7 @@
         <v>100</v>
       </c>
       <c r="G111" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H111" t="s">
         <v>127</v>
@@ -11244,7 +12231,7 @@
         <v>80</v>
       </c>
       <c r="G201" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H201" t="s">
         <v>242</v>
@@ -11290,7 +12277,7 @@
         <v>81</v>
       </c>
       <c r="G203" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="H203" t="s">
         <v>242</v>
@@ -11993,7 +12980,7 @@
         <v>73</v>
       </c>
       <c r="G235" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="H235" t="s">
         <v>285</v>
@@ -12019,7 +13006,7 @@
         <v>54</v>
       </c>
       <c r="G236" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="H236" t="s">
         <v>285</v>
@@ -12549,7 +13536,7 @@
         <v>70</v>
       </c>
       <c r="G261" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="H261" t="s">
         <v>299</v>
@@ -12802,7 +13789,7 @@
         <v>75</v>
       </c>
       <c r="G272" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="H272" t="s">
         <v>331</v>
@@ -12914,7 +13901,7 @@
         <v>55</v>
       </c>
       <c r="G277" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="H277" t="s">
         <v>331</v>
@@ -12963,7 +13950,7 @@
         <v>60</v>
       </c>
       <c r="G279" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="H279" t="s">
         <v>331</v>
@@ -12989,7 +13976,7 @@
         <v>75</v>
       </c>
       <c r="G280" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="H280" t="s">
         <v>331</v>
@@ -13038,7 +14025,7 @@
         <v>75</v>
       </c>
       <c r="G282" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="H282" t="s">
         <v>331</v>
@@ -13147,7 +14134,7 @@
         <v>77</v>
       </c>
       <c r="G287" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="H287" t="s">
         <v>331</v>
@@ -13219,7 +14206,7 @@
         <v>67</v>
       </c>
       <c r="G290" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="H290" t="s">
         <v>331</v>
@@ -13245,7 +14232,7 @@
         <v>60</v>
       </c>
       <c r="G291" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="H291" t="s">
         <v>331</v>
@@ -15066,7 +16053,7 @@
         <v>65</v>
       </c>
       <c r="G375" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="H375" t="s">
         <v>440</v>
@@ -16053,7 +17040,7 @@
         <v>125</v>
       </c>
       <c r="G420" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="H420" t="s">
         <v>504</v>
@@ -16259,9 +17246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -16487,7 +17472,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B12">
         <v>189282</v>
@@ -16503,7 +17488,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B14">
         <v>73769</v>
@@ -16511,7 +17496,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B15">
         <v>70768</v>
@@ -16534,10 +17519,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16579,7 +17564,7 @@
         <v>642</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -16587,7 +17572,7 @@
         <v>643</v>
       </c>
       <c r="B6">
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -16595,7 +17580,7 @@
         <v>644</v>
       </c>
       <c r="B7">
-        <v>70000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -16603,7 +17588,7 @@
         <v>645</v>
       </c>
       <c r="B8">
-        <v>30000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -16611,7 +17596,7 @@
         <v>646</v>
       </c>
       <c r="B9">
-        <v>20000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -16619,7 +17604,7 @@
         <v>647</v>
       </c>
       <c r="B10">
-        <v>10000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -16627,7 +17612,127 @@
         <v>648</v>
       </c>
       <c r="B11">
-        <v>8424</v>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B14">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>819</v>
+      </c>
+      <c r="B20">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>820</v>
+      </c>
+      <c r="B21">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -16638,20 +17743,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -16720,7 +17825,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -16728,7 +17833,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -16760,7 +17865,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -16800,7 +17905,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -16808,7 +17913,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -16816,7 +17921,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -16824,31 +17929,31 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -16856,66 +17961,66 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -16923,39 +18028,39 @@
         <v>673</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -16963,102 +18068,14 @@
         <v>678</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>689</v>
-      </c>
-      <c r="B42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>679</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>680</v>
-      </c>
-      <c r="B44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>681</v>
-      </c>
-      <c r="B45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>682</v>
-      </c>
-      <c r="B46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>684</v>
-      </c>
-      <c r="B47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>685</v>
-      </c>
-      <c r="B48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>687</v>
-      </c>
-      <c r="B49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>691</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>692</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>693</v>
-      </c>
-      <c r="B52">
         <v>11</v>
       </c>
     </row>
@@ -17081,15 +18098,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -17097,7 +18114,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -17105,7 +18122,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -17113,7 +18130,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B5">
         <v>0.32</v>
@@ -17121,7 +18138,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B6">
         <v>0.76</v>
